--- a/academias/Programación - Estadisticos 2020.xlsx
+++ b/academias/Programación - Estadisticos 2020.xlsx
@@ -476,6 +476,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1087,6 +1088,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1650,6 +1652,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Programación - Estadisticos 2020.xlsx
+++ b/academias/Programación - Estadisticos 2020.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="31">
   <si>
     <t>Docente</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Pesce Bautista Victor Manuel</t>
-  </si>
-  <si>
-    <t>Rivera Cruz Ezequiel</t>
   </si>
   <si>
     <t>Rodriguez Roman Marisol</t>
@@ -519,10 +516,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -554,10 +551,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -589,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -624,10 +621,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -659,10 +656,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -694,10 +691,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -729,10 +726,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>21</v>
@@ -764,10 +761,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -799,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>28</v>
@@ -834,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -869,10 +866,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>39</v>
@@ -904,115 +901,115 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>40.91</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>59.09</v>
+        <v>40</v>
       </c>
       <c r="I13">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>59.09</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>67.86</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>32.14</v>
       </c>
       <c r="I14">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>67.86</v>
+        <v>40.91</v>
       </c>
       <c r="H15">
-        <v>32.14</v>
+        <v>59.09</v>
       </c>
       <c r="I15">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>32.14</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>39</v>
@@ -1041,13 +1038,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>21</v>
@@ -1131,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1163,10 +1160,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -1195,10 +1192,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -1227,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1259,10 +1256,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -1291,10 +1288,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -1323,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>21</v>
@@ -1355,10 +1352,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -1387,10 +1384,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>28</v>
@@ -1419,10 +1416,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -1451,10 +1448,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>39</v>
@@ -1483,19 +1480,19 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1504,7 +1501,7 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -1512,22 +1509,22 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1536,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="J14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -1544,22 +1541,22 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1568,7 +1565,7 @@
         <v>100</v>
       </c>
       <c r="J15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K15">
         <v>100</v>
@@ -1576,13 +1573,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>39</v>
@@ -1608,13 +1605,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>21</v>
@@ -1695,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1730,10 +1727,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -1765,10 +1762,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -1800,10 +1797,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>21</v>
@@ -1835,10 +1832,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -1870,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -1905,10 +1902,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>21</v>
@@ -1940,10 +1937,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -1975,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>28</v>
@@ -2010,10 +2007,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>22</v>
@@ -2045,10 +2042,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>39</v>
@@ -2080,115 +2077,115 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>40.91</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>59.09</v>
+        <v>40</v>
       </c>
       <c r="I13">
-        <v>8.300000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>59.09</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>60</v>
+        <v>67.86</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>32.14</v>
       </c>
       <c r="I14">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>67.86</v>
+        <v>40.91</v>
       </c>
       <c r="H15">
-        <v>32.14</v>
+        <v>59.09</v>
       </c>
       <c r="I15">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K15">
-        <v>32.14</v>
+        <v>59.09</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>39</v>
@@ -2217,13 +2214,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>21</v>

--- a/academias/Programación - Estadisticos 2020.xlsx
+++ b/academias/Programación - Estadisticos 2020.xlsx
@@ -910,25 +910,25 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -945,25 +945,25 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>67.86</v>
+        <v>82.14</v>
       </c>
       <c r="H14">
-        <v>32.14</v>
+        <v>17.86</v>
       </c>
       <c r="I14">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>32.14</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -980,25 +980,25 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>40.91</v>
+        <v>77.27</v>
       </c>
       <c r="H15">
-        <v>59.09</v>
+        <v>22.73</v>
       </c>
       <c r="I15">
-        <v>8.300000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>59.09</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1457,22 +1457,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>20.51</v>
+      </c>
+      <c r="I12">
+        <v>7.5</v>
       </c>
       <c r="J12">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1489,22 +1492,25 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>7.3</v>
       </c>
       <c r="J13">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1521,22 +1527,25 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>35.71</v>
+      </c>
+      <c r="I14">
+        <v>6.6</v>
       </c>
       <c r="J14">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1553,22 +1562,25 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>72.73</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>27.27</v>
+      </c>
+      <c r="I15">
+        <v>8.5</v>
       </c>
       <c r="J15">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2051,19 +2063,19 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>76.92</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="H12">
-        <v>23.08</v>
+        <v>20.51</v>
       </c>
       <c r="I12">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2086,25 +2098,25 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I13">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2121,25 +2133,25 @@
         <v>28</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>67.86</v>
+        <v>82.14</v>
       </c>
       <c r="H14">
-        <v>32.14</v>
+        <v>17.86</v>
       </c>
       <c r="I14">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>32.14</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2156,25 +2168,25 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>40.91</v>
+        <v>77.27</v>
       </c>
       <c r="H15">
-        <v>59.09</v>
+        <v>22.73</v>
       </c>
       <c r="I15">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J15">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>59.09</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="16" spans="1:11">

--- a/academias/Programación - Estadisticos 2020.xlsx
+++ b/academias/Programación - Estadisticos 2020.xlsx
@@ -595,25 +595,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -630,25 +630,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5">
-        <v>38.1</v>
+        <v>28.57</v>
       </c>
       <c r="I5">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>38.1</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -665,25 +665,25 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -735,25 +735,25 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>66.67</v>
+        <v>76.19</v>
       </c>
       <c r="H8">
-        <v>33.33</v>
+        <v>23.81</v>
       </c>
       <c r="I8">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>33.33</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,25 +770,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>21.43</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -805,25 +805,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>67.86</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>32.14</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>32.14</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -840,25 +840,25 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>59.09</v>
+        <v>72.73</v>
       </c>
       <c r="H11">
-        <v>40.91</v>
+        <v>27.27</v>
       </c>
       <c r="I11">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>40.91</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1015,25 +1015,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>64.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>35.9</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>35.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1062,13 +1062,13 @@
         <v>33.33</v>
       </c>
       <c r="I17">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1137,22 +1137,25 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>80.95</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>19.05</v>
+      </c>
+      <c r="I2">
+        <v>7.6</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1169,22 +1172,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80.95</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>19.05</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1201,22 +1207,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>25.64</v>
+      </c>
+      <c r="I4">
+        <v>7.8</v>
       </c>
       <c r="J4">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1233,22 +1242,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I5">
+        <v>9.300000000000001</v>
       </c>
       <c r="J5">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1265,22 +1277,25 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>6.8</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1297,22 +1312,25 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1329,22 +1347,25 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>76.19</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>23.81</v>
+      </c>
+      <c r="I8">
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1361,22 +1382,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>60.71</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>39.29</v>
+      </c>
+      <c r="I9">
+        <v>7.4</v>
       </c>
       <c r="J9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1393,22 +1417,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>53.57</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>46.43</v>
+      </c>
+      <c r="I10">
+        <v>6.9</v>
       </c>
       <c r="J10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1425,22 +1452,25 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>18.18</v>
+      </c>
+      <c r="I11">
+        <v>6.9</v>
       </c>
       <c r="J11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1597,22 +1627,25 @@
         <v>39</v>
       </c>
       <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>69.23</v>
+      </c>
+      <c r="H16">
+        <v>30.77</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>39</v>
-      </c>
-      <c r="G16">
+      <c r="K16">
         <v>0</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-      <c r="J16">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1629,22 +1662,25 @@
         <v>21</v>
       </c>
       <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H17">
+        <v>28.57</v>
+      </c>
+      <c r="I17">
+        <v>7.1</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>21</v>
-      </c>
-      <c r="G17">
+      <c r="K17">
         <v>0</v>
-      </c>
-      <c r="H17">
-        <v>100</v>
-      </c>
-      <c r="J17">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1761,7 @@
         <v>19.05</v>
       </c>
       <c r="I2">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -1760,7 +1796,7 @@
         <v>19.05</v>
       </c>
       <c r="I3">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J3">
         <v>4</v>
@@ -1783,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>71.79000000000001</v>
+        <v>74.36</v>
       </c>
       <c r="H4">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
       <c r="I4">
         <v>8</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>28.21</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1818,25 +1854,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>61.9</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H5">
-        <v>38.1</v>
+        <v>28.57</v>
       </c>
       <c r="I5">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>38.1</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1853,25 +1889,25 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1900,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="I7">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1923,25 +1959,25 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>66.67</v>
+        <v>76.19</v>
       </c>
       <c r="H8">
-        <v>33.33</v>
+        <v>23.81</v>
       </c>
       <c r="I8">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>33.33</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1958,25 +1994,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>21.43</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>25</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1993,25 +2029,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>67.86</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>32.14</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>6.5</v>
       </c>
       <c r="J10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>32.14</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2028,25 +2064,25 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>59.09</v>
+        <v>86.36</v>
       </c>
       <c r="H11">
-        <v>40.91</v>
+        <v>13.64</v>
       </c>
       <c r="I11">
         <v>6.8</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>40.91</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2203,25 +2239,25 @@
         <v>39</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>64.09999999999999</v>
+        <v>69.23</v>
       </c>
       <c r="H16">
-        <v>35.9</v>
+        <v>30.77</v>
       </c>
       <c r="I16">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>35.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2238,25 +2274,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H17">
+        <v>28.57</v>
+      </c>
+      <c r="I17">
         <v>7</v>
       </c>
-      <c r="G17">
-        <v>66.67</v>
-      </c>
-      <c r="H17">
-        <v>33.33</v>
-      </c>
-      <c r="I17">
-        <v>7.9</v>
-      </c>
       <c r="J17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Programación - Estadisticos 2020.xlsx
+++ b/academias/Programación - Estadisticos 2020.xlsx
@@ -817,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="I10">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>14.29</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -852,13 +852,13 @@
         <v>27.27</v>
       </c>
       <c r="I11">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1382,25 +1382,25 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>60.71</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H9">
-        <v>39.29</v>
+        <v>35.71</v>
       </c>
       <c r="I9">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>39.29</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1417,25 +1417,25 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="H10">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
       <c r="I10">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10">
-        <v>46.43</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1452,25 +1452,25 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>81.81999999999999</v>
+        <v>86.36</v>
       </c>
       <c r="H11">
-        <v>18.18</v>
+        <v>13.64</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>18.18</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2041,13 +2041,13 @@
         <v>25</v>
       </c>
       <c r="I10">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>14.29</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2076,13 +2076,13 @@
         <v>13.64</v>
       </c>
       <c r="I11">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">

--- a/academias/Programación - Estadisticos 2020.xlsx
+++ b/academias/Programación - Estadisticos 2020.xlsx
@@ -630,25 +630,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="H5">
-        <v>28.57</v>
+        <v>23.81</v>
       </c>
       <c r="I5">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>28.57</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1242,25 +1242,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="H5">
-        <v>28.57</v>
+        <v>23.81</v>
       </c>
       <c r="I5">
         <v>9.300000000000001</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>28.57</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1854,25 +1854,25 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>71.43000000000001</v>
+        <v>76.19</v>
       </c>
       <c r="H5">
-        <v>28.57</v>
+        <v>23.81</v>
       </c>
       <c r="I5">
         <v>9.300000000000001</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>28.57</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="6" spans="1:11">
